--- a/figures/Tables/TableS1_Gsp1_HRas_annotations.xlsx
+++ b/figures/Tables/TableS1_Gsp1_HRas_annotations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjmathy/gdrive/gsp1_dms/figures/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E80A11B1-116C-E944-B4D8-05FC2057F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF05B7-F044-C942-826A-A786104BEF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="6320" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="7900" yWindow="6320" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_Gsp1_HRas_annotations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Gsp1 residue category (Figure 4)</t>
   </si>
@@ -34,28 +34,10 @@
     <t>Sector positions in HRas (from SCA analysis)</t>
   </si>
   <si>
-    <t>GTPase regions</t>
-  </si>
-  <si>
     <t>G19, D20, G21, G22, T23, G24, K25, T26, G35, E36, F37, A43, T44, I45, G46, D67, T68, A69, G70, Q71, E72, G75, L77, R78, G80, Y81, K125, D127, S152, A153</t>
   </si>
   <si>
-    <t>G12, G13, V14, K16, P34, T58, A59, G60, Q61, E63, R68, N116, K117, D119, S145, A146, K147</t>
-  </si>
-  <si>
     <t>G10, A11, V14, G15, K16, S17, F28, Y32, P34, T35, I36, D57, T58, A59, G60, Q61, E62, E63, Y64, R68, Y71, N116, K117, D119, S145, A146, K147</t>
-  </si>
-  <si>
-    <t>Contacts Nucleotide</t>
-  </si>
-  <si>
-    <t>D20, G21, G22, T23, G24, K25, T26, F37, A43, T44, D67, T68, A69, G70, Q71, K125, D127, S152, A153</t>
-  </si>
-  <si>
-    <t>G12, G13, V14, K16, A18, P34, T58, A59, G60, Q61, N116, K117, D119, L120, S145, A146, K147</t>
-  </si>
-  <si>
-    <t>A11, V14, G15, K16, S17, F28, Y32, P34, T35, D57, T58, A59, G60, Q61, N116, K117, D119, S145, A146, K147</t>
   </si>
   <si>
     <t>Distal sites affecting switching</t>
@@ -114,11 +96,17 @@
       <t>. Definitions for categories are from Gsp1 analysis, shown in Figure 4. Sets of HRas sites for each category were constructed based on a structural alignment, and the subset of sites labeled as activating (Hidalgo et al., 2022) or as part of the SCA sector (Rivoire et al., 2016) are listed.</t>
     </r>
   </si>
+  <si>
+    <t>G12, G13, V14, K16, A18, P34, T58, A59, G60, Q61, E63, R68, N116, K117, D119, L120, S145, A146, K147</t>
+  </si>
+  <si>
+    <t>Active site regions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -623,9 +611,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -634,6 +619,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -989,11 +977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,95 +993,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1101,5 +1075,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>